--- a/biology/Médecine/Pol_Bouin/Pol_Bouin.xlsx
+++ b/biology/Médecine/Pol_Bouin/Pol_Bouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Pol Bouin, né le 11 juin 1870 à Vendresse dans les Ardennes (France) et mort le 5 février 1962 à Vendresse[1], est un médecin, histologiste et biologiste français, professeur à la faculté de médecine à Nancy, à Alger, puis à Strasbourg. Considéré comme le « fondateur de l'endocrinologie sexuelle[2] » avec Paul Ancel, il fait figure de pionnier de la recherche en biologie de la reproduction.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Pol Bouin, né le 11 juin 1870 à Vendresse dans les Ardennes (France) et mort le 5 février 1962 à Vendresse, est un médecin, histologiste et biologiste français, professeur à la faculté de médecine à Nancy, à Alger, puis à Strasbourg. Considéré comme le « fondateur de l'endocrinologie sexuelle » avec Paul Ancel, il fait figure de pionnier de la recherche en biologie de la reproduction.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pol Bouin fait ses études à la Faculté de Nancy. Il s'oriente ensuite vers l'endocrinologie de la reproduction pour laquelle il établira vers 1900 que les hormones mâles comme la testostérone sont produites par les cellules de Leydig, alors appelées cellules interstitielles des testicules.
-« Au début du XXe siècle, l'histologie, la cytologie et la physiologie, qui contribuaient puissamment aux progrès de la biologie, faisaient presque toujours partie des facultés de médecine. Ainsi, c'est dans le cadre de l'histologie médicale qu'ont été réalisées les premières découvertes sur les glandes endocrines (pour n'en donner que quelques exemples : l'École de Paul Bouin, Robert Courrier, Étienne Wolff, Max Aron, Jacques Benoit dans les facultés de médecine de Nancy et Strasbourg[1] dans l'immédiat après-guerre, qui ont presque tous fini leur carrière au Collège de France). Bien que se consacrant à des recherches fondamentales, ces scientifiques ont conforté le pouvoir médical sur la science, dont ils étaient à la fois les garants, tout en ouvrant des voies nouvelles pour la biologie »
-— Claude Kordon[3]
-Pol Bouin[4], Auguste Prenant (voir sur wikidata) et Louis-Camille Maillard reçoivent le prix Barbier en 1904[5].
+« Au début du XXe siècle, l'histologie, la cytologie et la physiologie, qui contribuaient puissamment aux progrès de la biologie, faisaient presque toujours partie des facultés de médecine. Ainsi, c'est dans le cadre de l'histologie médicale qu'ont été réalisées les premières découvertes sur les glandes endocrines (pour n'en donner que quelques exemples : l'École de Paul Bouin, Robert Courrier, Étienne Wolff, Max Aron, Jacques Benoit dans les facultés de médecine de Nancy et Strasbourg dans l'immédiat après-guerre, qui ont presque tous fini leur carrière au Collège de France). Bien que se consacrant à des recherches fondamentales, ces scientifiques ont conforté le pouvoir médical sur la science, dont ils étaient à la fois les garants, tout en ouvrant des voies nouvelles pour la biologie »
+— Claude Kordon
+Pol Bouin, Auguste Prenant (voir sur wikidata) et Louis-Camille Maillard reçoivent le prix Barbier en 1904.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liquide de Bouin
-Dentelle utérine de Bouin et Ancel[6]
-Test de Bouin et Ancel[7]</t>
+Dentelle utérine de Bouin et Ancel
+Test de Bouin et Ancel</t>
         </is>
       </c>
     </row>
@@ -577,13 +593,15 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contribution à l'étude du ganglion moyen dans la rétine des oiseaux, impr. de Berger-Levrault (Nancy), 1895, In-8° , 5 p., lire en ligne sur Gallica.
 Phénomènes cytologiques anormaux dans l’histogenèse et l'atrophie expérimentale du tube séminifère, Nancy, Imprimerie Nancéienne, 1897.
 Titres et travaux scientifiques du Dr P. Bouin, Nancy, Berger-Levrault, 1898, Texte intégral.
-Histogenèse de la glande génitale femelle chez Rana temporaria (L.), thèse ès sciences naturelles no 13, Nancy, Faculté des sciences, 1900], Liège , impr. H. Vaillant-Carmanne, 1900, 1 vol. (p. 201-381, [4] p. de pl.) : pl. en noir et en coul. ; 26 cm [Extrait des Archives de Biologie, t. XVII, 1900, p. 207-383, Bibliogr. p. 358-372].
-Éléments d'histologie I.[8], « Cellule, division cellulaire, différenciation cellulaire, classification morphologique et fonctionnelle des cellules, tissus et organes, éléments de soutien, contractiles, nutritifs, sang, lymphe, organes hématopoïétiques, vaisseaux sanguins et lymphatiques », avec 200 figures et deux planches en couleurs, Paris, éditions Félix Alcan, 1929.
+Histogenèse de la glande génitale femelle chez Rana temporaria (L.), thèse ès sciences naturelles no 13, Nancy, Faculté des sciences, 1900], Liège , impr. H. Vaillant-Carmanne, 1900, 1 vol. (p. 201-381,  p. de pl.) : pl. en noir et en coul. ; 26 cm [Extrait des Archives de Biologie, t. XVII, 1900, p. 207-383, Bibliogr. p. 358-372].
+Éléments d'histologie I., « Cellule, division cellulaire, différenciation cellulaire, classification morphologique et fonctionnelle des cellules, tissus et organes, éléments de soutien, contractiles, nutritifs, sang, lymphe, organes hématopoïétiques, vaisseaux sanguins et lymphatiques », avec 200 figures et deux planches en couleurs, Paris, éditions Félix Alcan, 1929.
 Auguste Prenant, 1861-1927, [Extrait de Archives d'Anatomie microscopique t. 26, n. 1, 1930], Paris, Masson, 1930, 1 vol. (42 p.) : portr. ; In-8.
 Éléments d'histologie II, « Cellules et organes de la nutrition : tube digestif et glandes annexes; appareil respiratoire appareil excréteur. Cellules et organes des corrélations inter-organiques; glandes endocrines. Cellules sensibles: système nerveux; organes des sens. Gonocytes et organes de la reproduction », Paris, J. Gibert, 1932.
 Exposé des travaux scientifiques, Clermont-Ferrand, Imprimerie J. de Bussac , 1944, 39 p., In-8°.
@@ -631,13 +649,15 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Membre fondateur de la Société de biologie de Nancy
-Membre de l'Académie nationale de médecine[1]
-Membre de l'Académie des sciences[1]
-Médaille d'or du CNRS (1961)[10]
-Commandeur de la Légion d'honneur[11]</t>
+Membre de l'Académie nationale de médecine
+Membre de l'Académie des sciences
+Médaille d'or du CNRS (1961)
+Commandeur de la Légion d'honneur</t>
         </is>
       </c>
     </row>
